--- a/data/trans_orig/P36BPD10_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD10_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99AA6C55-9328-4927-8F43-0B40DDA73BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18DD4B94-062D-43E7-81A8-B625D88F05B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{90AB3A70-4C67-4390-A8A5-28772DC74309}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EFB7C9D6-353E-47B0-B9EC-0B995A46EBCC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
   <si>
     <t>Población según el número de raciones pescado o mariscos que consumen a la semana en 2023 (Tasa respuesta: 99,85%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>9,72%</t>
   </si>
   <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
   </si>
   <si>
     <t>9,2%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
   </si>
   <si>
     <t>9,41%</t>
   </si>
   <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
   </si>
   <si>
     <t>Uno por semana</t>
@@ -104,28 +104,28 @@
     <t>52,69%</t>
   </si>
   <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
   </si>
   <si>
     <t>52,99%</t>
   </si>
   <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
   </si>
   <si>
     <t>52,87%</t>
   </si>
   <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
   </si>
   <si>
     <t>Dos o más por semana</t>
@@ -134,10 +134,10 @@
     <t>37,59%</t>
   </si>
   <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
   </si>
   <si>
     <t>37,8%</t>
@@ -146,16 +146,16 @@
     <t>35,18%</t>
   </si>
   <si>
-    <t>40,66%</t>
+    <t>40,87%</t>
   </si>
   <si>
     <t>37,72%</t>
   </si>
   <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,16 +167,19 @@
     <t>10,41%</t>
   </si>
   <si>
-    <t>8,95%</t>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
   </si>
   <si>
     <t>7,88%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
   </si>
   <si>
     <t>9,12%</t>
@@ -185,61 +188,61 @@
     <t>8,1%</t>
   </si>
   <si>
-    <t>10,27%</t>
+    <t>10,15%</t>
   </si>
   <si>
     <t>49,02%</t>
   </si>
   <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
   </si>
   <si>
     <t>44,39%</t>
   </si>
   <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
   </si>
   <si>
     <t>46,66%</t>
   </si>
   <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
   </si>
   <si>
     <t>40,57%</t>
   </si>
   <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
   </si>
   <si>
     <t>47,74%</t>
   </si>
   <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
   </si>
   <si>
     <t>44,23%</t>
   </si>
   <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -248,157 +251,157 @@
     <t>7,99%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
   </si>
   <si>
     <t>8,79%</t>
   </si>
   <si>
-    <t>6,98%</t>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
   </si>
   <si>
     <t>8,4%</t>
   </si>
   <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
   </si>
   <si>
     <t>42,3%</t>
   </si>
   <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
   </si>
   <si>
     <t>36,03%</t>
   </si>
   <si>
-    <t>32,58%</t>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
   </si>
   <si>
     <t>39,39%</t>
   </si>
   <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
+    <t>43,96%</t>
   </si>
   <si>
     <t>46,95%</t>
   </si>
   <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
   </si>
   <si>
     <t>44,58%</t>
   </si>
   <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -813,7 +816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC41BDB-926E-4D45-8AD9-D5CC786CE761}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCFFA0C-4BF7-4A12-B6E0-21D443E0F081}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1149,7 +1152,7 @@
         <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>234</v>
@@ -1158,13 +1161,13 @@
         <v>177186</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>419</v>
@@ -1173,13 +1176,13 @@
         <v>401843</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1194,28 +1197,28 @@
         <v>1057727</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>1282</v>
       </c>
       <c r="I9" s="7">
-        <v>998523</v>
+        <v>998522</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>2211</v>
@@ -1224,13 +1227,13 @@
         <v>2056249</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1245,13 +1248,13 @@
         <v>875289</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>1405</v>
@@ -1260,13 +1263,13 @@
         <v>1073812</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>2279</v>
@@ -1275,13 +1278,13 @@
         <v>1949101</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1308,7 +1311,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1337,7 +1340,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1349,13 +1352,13 @@
         <v>53788</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>83</v>
@@ -1364,13 +1367,13 @@
         <v>62741</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>128</v>
@@ -1379,13 +1382,13 @@
         <v>116530</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1400,13 +1403,13 @@
         <v>284719</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>340</v>
@@ -1415,13 +1418,13 @@
         <v>257222</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>617</v>
@@ -1430,13 +1433,13 @@
         <v>541941</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1451,13 +1454,13 @@
         <v>334532</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>581</v>
@@ -1466,13 +1469,13 @@
         <v>393923</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>940</v>
@@ -1481,13 +1484,13 @@
         <v>728455</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1555,13 +1558,13 @@
         <v>330962</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>435</v>
@@ -1570,13 +1573,13 @@
         <v>316698</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>731</v>
@@ -1585,13 +1588,13 @@
         <v>647660</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1606,13 +1609,13 @@
         <v>1627040</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>2367</v>
@@ -1621,28 +1624,28 @@
         <v>1697756</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>3933</v>
       </c>
       <c r="N17" s="7">
-        <v>3324797</v>
+        <v>3324796</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1657,13 +1660,13 @@
         <v>1412869</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>2547</v>
@@ -1672,13 +1675,13 @@
         <v>1783048</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>4043</v>
@@ -1687,13 +1690,13 @@
         <v>3195917</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1735,7 +1738,7 @@
         <v>8707</v>
       </c>
       <c r="N19" s="7">
-        <v>7168374</v>
+        <v>7168373</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1749,7 +1752,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD10_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD10_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18DD4B94-062D-43E7-81A8-B625D88F05B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7BA2849-C834-4BAE-8756-16D7DF413DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EFB7C9D6-353E-47B0-B9EC-0B995A46EBCC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CE964DDC-505D-4824-838E-F2A506A9B653}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,28 +71,28 @@
     <t>Menos de una por semana</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
   </si>
   <si>
     <t>10,9%</t>
@@ -101,61 +101,61 @@
     <t>Uno por semana</t>
   </si>
   <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
   </si>
   <si>
     <t>Dos o más por semana</t>
   </si>
   <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,244 +164,244 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -816,7 +816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCFFA0C-4BF7-4A12-B6E0-21D443E0F081}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273D3226-C67B-4325-87E6-C5DD36B99FF8}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -937,7 +937,7 @@
         <v>66</v>
       </c>
       <c r="D4" s="7">
-        <v>52517</v>
+        <v>49458</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -952,7 +952,7 @@
         <v>118</v>
       </c>
       <c r="I4" s="7">
-        <v>76771</v>
+        <v>69527</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -967,7 +967,7 @@
         <v>184</v>
       </c>
       <c r="N4" s="7">
-        <v>129288</v>
+        <v>118986</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -988,7 +988,7 @@
         <v>360</v>
       </c>
       <c r="D5" s="7">
-        <v>284595</v>
+        <v>267322</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1003,7 +1003,7 @@
         <v>745</v>
       </c>
       <c r="I5" s="7">
-        <v>442011</v>
+        <v>395019</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1018,7 +1018,7 @@
         <v>1105</v>
       </c>
       <c r="N5" s="7">
-        <v>726606</v>
+        <v>662342</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1039,7 +1039,7 @@
         <v>263</v>
       </c>
       <c r="D6" s="7">
-        <v>203048</v>
+        <v>196803</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1054,7 +1054,7 @@
         <v>561</v>
       </c>
       <c r="I6" s="7">
-        <v>315313</v>
+        <v>289243</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1069,7 +1069,7 @@
         <v>824</v>
       </c>
       <c r="N6" s="7">
-        <v>518361</v>
+        <v>486047</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1090,7 +1090,7 @@
         <v>689</v>
       </c>
       <c r="D7" s="7">
-        <v>540160</v>
+        <v>513584</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1105,7 +1105,7 @@
         <v>1424</v>
       </c>
       <c r="I7" s="7">
-        <v>834095</v>
+        <v>753790</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1120,7 +1120,7 @@
         <v>2113</v>
       </c>
       <c r="N7" s="7">
-        <v>1374255</v>
+        <v>1267374</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1143,46 +1143,46 @@
         <v>185</v>
       </c>
       <c r="D8" s="7">
-        <v>224657</v>
+        <v>220183</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>234</v>
       </c>
       <c r="I8" s="7">
-        <v>177186</v>
+        <v>164722</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>419</v>
       </c>
       <c r="N8" s="7">
-        <v>401843</v>
+        <v>384905</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1194,46 +1194,46 @@
         <v>929</v>
       </c>
       <c r="D9" s="7">
-        <v>1057727</v>
+        <v>1199404</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>1282</v>
       </c>
       <c r="I9" s="7">
-        <v>998522</v>
+        <v>951502</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>2211</v>
       </c>
       <c r="N9" s="7">
-        <v>2056249</v>
+        <v>2150906</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1245,46 +1245,46 @@
         <v>874</v>
       </c>
       <c r="D10" s="7">
-        <v>875289</v>
+        <v>866484</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>1405</v>
       </c>
       <c r="I10" s="7">
-        <v>1073812</v>
+        <v>1121599</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>2279</v>
       </c>
       <c r="N10" s="7">
-        <v>1949101</v>
+        <v>1988082</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1296,7 +1296,7 @@
         <v>1988</v>
       </c>
       <c r="D11" s="7">
-        <v>2157672</v>
+        <v>2286070</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1311,7 +1311,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1326,7 +1326,7 @@
         <v>4909</v>
       </c>
       <c r="N11" s="7">
-        <v>4407192</v>
+        <v>4523893</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1349,46 +1349,46 @@
         <v>45</v>
       </c>
       <c r="D12" s="7">
-        <v>53788</v>
+        <v>56794</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>83</v>
       </c>
       <c r="I12" s="7">
-        <v>62741</v>
+        <v>57947</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>128</v>
       </c>
       <c r="N12" s="7">
-        <v>116530</v>
+        <v>114741</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1400,46 +1400,46 @@
         <v>277</v>
       </c>
       <c r="D13" s="7">
-        <v>284719</v>
+        <v>267419</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>340</v>
       </c>
       <c r="I13" s="7">
-        <v>257222</v>
+        <v>235257</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>617</v>
       </c>
       <c r="N13" s="7">
-        <v>541941</v>
+        <v>502676</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1451,46 +1451,46 @@
         <v>359</v>
       </c>
       <c r="D14" s="7">
-        <v>334532</v>
+        <v>322410</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>581</v>
       </c>
       <c r="I14" s="7">
-        <v>393923</v>
+        <v>367259</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>940</v>
       </c>
       <c r="N14" s="7">
-        <v>728455</v>
+        <v>689669</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1502,7 +1502,7 @@
         <v>681</v>
       </c>
       <c r="D15" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1517,7 +1517,7 @@
         <v>1004</v>
       </c>
       <c r="I15" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1532,7 +1532,7 @@
         <v>1685</v>
       </c>
       <c r="N15" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1555,46 +1555,46 @@
         <v>296</v>
       </c>
       <c r="D16" s="7">
-        <v>330962</v>
+        <v>326435</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>435</v>
       </c>
       <c r="I16" s="7">
-        <v>316698</v>
+        <v>292197</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>731</v>
       </c>
       <c r="N16" s="7">
-        <v>647660</v>
+        <v>618631</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1606,40 +1606,40 @@
         <v>1566</v>
       </c>
       <c r="D17" s="7">
-        <v>1627040</v>
+        <v>1734145</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>2367</v>
       </c>
       <c r="I17" s="7">
-        <v>1697756</v>
+        <v>1581779</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>3933</v>
       </c>
       <c r="N17" s="7">
-        <v>3324796</v>
+        <v>3315923</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>111</v>
@@ -1657,7 +1657,7 @@
         <v>1496</v>
       </c>
       <c r="D18" s="7">
-        <v>1412869</v>
+        <v>1385698</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>113</v>
@@ -1672,7 +1672,7 @@
         <v>2547</v>
       </c>
       <c r="I18" s="7">
-        <v>1783048</v>
+        <v>1778101</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>116</v>
@@ -1687,7 +1687,7 @@
         <v>4043</v>
       </c>
       <c r="N18" s="7">
-        <v>3195917</v>
+        <v>3163798</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>119</v>
@@ -1708,7 +1708,7 @@
         <v>3358</v>
       </c>
       <c r="D19" s="7">
-        <v>3370871</v>
+        <v>3446277</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1723,7 +1723,7 @@
         <v>5349</v>
       </c>
       <c r="I19" s="7">
-        <v>3797502</v>
+        <v>3652076</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -1738,7 +1738,7 @@
         <v>8707</v>
       </c>
       <c r="N19" s="7">
-        <v>7168373</v>
+        <v>7098353</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
